--- a/datasets/Emotional_EMA/usable_details.xlsx
+++ b/datasets/Emotional_EMA/usable_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michen\OneDrive - University of North Carolina at Chapel Hill\Desktop\multilingual_speech_valence_classification\datasets\Emotional_EMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81032CA-84F2-4595-9B73-AAB81768C12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8955B7-00CE-4ED0-A1D1-C2971C48ECAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E9869D6F-3F39-447B-B3F4-220E8C65F45B}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="90" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="711">
   <si>
     <t>4emo_jn_neutral_27.wav</t>
   </si>
@@ -2172,6 +2172,9 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>see data_retained.csv for recoded details</t>
   </si>
 </sst>
 </file>
@@ -10449,7 +10452,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC9254FA-EEBD-46F8-8C42-ADFD25FE4628}" name="PivotTable35" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC9254FA-EEBD-46F8-8C42-ADFD25FE4628}" name="PivotTable35" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -10819,7 +10822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35616849-6D34-4390-8E72-9F2D4C9DE804}">
-  <dimension ref="A3:E7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10832,6 +10835,11 @@
     <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>710</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>690</v>
@@ -10917,9 +10925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA76A31D-FB6F-43DB-B39D-7A08713EFCF5}">
   <dimension ref="A1:J681"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A681" sqref="A2:A681"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10992,7 +10998,7 @@
         <v>702</v>
       </c>
       <c r="J2" t="b">
-        <f>H2=I2</f>
+        <f t="shared" ref="J2:J65" si="0">H2=I2</f>
         <v>1</v>
       </c>
     </row>
@@ -11022,7 +11028,7 @@
         <v>702</v>
       </c>
       <c r="J3" t="b">
-        <f>H3=I3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11052,7 +11058,7 @@
         <v>702</v>
       </c>
       <c r="J4" t="b">
-        <f>H4=I4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11082,7 +11088,7 @@
         <v>702</v>
       </c>
       <c r="J5" t="b">
-        <f>H5=I5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11112,7 +11118,7 @@
         <v>703</v>
       </c>
       <c r="J6" t="b">
-        <f>H6=I6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11142,7 +11148,7 @@
         <v>702</v>
       </c>
       <c r="J7" t="b">
-        <f>H7=I7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11172,7 +11178,7 @@
         <v>702</v>
       </c>
       <c r="J8" t="b">
-        <f>H8=I8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11202,7 +11208,7 @@
         <v>703</v>
       </c>
       <c r="J9" t="b">
-        <f>H9=I9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11232,7 +11238,7 @@
         <v>702</v>
       </c>
       <c r="J10" t="b">
-        <f>H10=I10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11262,7 +11268,7 @@
         <v>702</v>
       </c>
       <c r="J11" t="b">
-        <f>H11=I11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11292,7 +11298,7 @@
         <v>703</v>
       </c>
       <c r="J12" t="b">
-        <f>H12=I12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11322,7 +11328,7 @@
         <v>702</v>
       </c>
       <c r="J13" t="b">
-        <f>H13=I13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11352,7 +11358,7 @@
         <v>702</v>
       </c>
       <c r="J14" t="b">
-        <f>H14=I14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11382,7 +11388,7 @@
         <v>702</v>
       </c>
       <c r="J15" t="b">
-        <f>H15=I15</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11412,7 +11418,7 @@
         <v>702</v>
       </c>
       <c r="J16" t="b">
-        <f>H16=I16</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11442,7 +11448,7 @@
         <v>702</v>
       </c>
       <c r="J17" t="b">
-        <f>H17=I17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11472,7 +11478,7 @@
         <v>703</v>
       </c>
       <c r="J18" t="b">
-        <f>H18=I18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11502,7 +11508,7 @@
         <v>702</v>
       </c>
       <c r="J19" t="b">
-        <f>H19=I19</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11532,7 +11538,7 @@
         <v>702</v>
       </c>
       <c r="J20" t="b">
-        <f>H20=I20</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11562,7 +11568,7 @@
         <v>703</v>
       </c>
       <c r="J21" t="b">
-        <f>H21=I21</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11592,7 +11598,7 @@
         <v>702</v>
       </c>
       <c r="J22" t="b">
-        <f>H22=I22</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11622,7 +11628,7 @@
         <v>703</v>
       </c>
       <c r="J23" t="b">
-        <f>H23=I23</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11652,7 +11658,7 @@
         <v>703</v>
       </c>
       <c r="J24" t="b">
-        <f>H24=I24</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11682,7 +11688,7 @@
         <v>702</v>
       </c>
       <c r="J25" t="b">
-        <f>H25=I25</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11712,7 +11718,7 @@
         <v>702</v>
       </c>
       <c r="J26" t="b">
-        <f>H26=I26</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11742,7 +11748,7 @@
         <v>702</v>
       </c>
       <c r="J27" t="b">
-        <f>H27=I27</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11772,7 +11778,7 @@
         <v>702</v>
       </c>
       <c r="J28" t="b">
-        <f>H28=I28</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11802,7 +11808,7 @@
         <v>703</v>
       </c>
       <c r="J29" t="b">
-        <f>H29=I29</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11832,7 +11838,7 @@
         <v>702</v>
       </c>
       <c r="J30" t="b">
-        <f>H30=I30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11862,7 +11868,7 @@
         <v>703</v>
       </c>
       <c r="J31" t="b">
-        <f>H31=I31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11892,7 +11898,7 @@
         <v>703</v>
       </c>
       <c r="J32" t="b">
-        <f>H32=I32</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11922,7 +11928,7 @@
         <v>702</v>
       </c>
       <c r="J33" t="b">
-        <f>H33=I33</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11952,7 +11958,7 @@
         <v>702</v>
       </c>
       <c r="J34" t="b">
-        <f>H34=I34</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -11982,7 +11988,7 @@
         <v>703</v>
       </c>
       <c r="J35" t="b">
-        <f>H35=I35</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12012,7 +12018,7 @@
         <v>702</v>
       </c>
       <c r="J36" t="b">
-        <f>H36=I36</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12042,7 +12048,7 @@
         <v>703</v>
       </c>
       <c r="J37" t="b">
-        <f>H37=I37</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12072,7 +12078,7 @@
         <v>702</v>
       </c>
       <c r="J38" t="b">
-        <f>H38=I38</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12102,7 +12108,7 @@
         <v>702</v>
       </c>
       <c r="J39" t="b">
-        <f>H39=I39</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12132,7 +12138,7 @@
         <v>702</v>
       </c>
       <c r="J40" t="b">
-        <f>H40=I40</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12162,7 +12168,7 @@
         <v>702</v>
       </c>
       <c r="J41" t="b">
-        <f>H41=I41</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12192,7 +12198,7 @@
         <v>702</v>
       </c>
       <c r="J42" t="b">
-        <f>H42=I42</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12222,7 +12228,7 @@
         <v>703</v>
       </c>
       <c r="J43" t="b">
-        <f>H43=I43</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12252,7 +12258,7 @@
         <v>703</v>
       </c>
       <c r="J44" t="b">
-        <f>H44=I44</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12282,7 +12288,7 @@
         <v>703</v>
       </c>
       <c r="J45" t="b">
-        <f>H45=I45</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12312,7 +12318,7 @@
         <v>702</v>
       </c>
       <c r="J46" t="b">
-        <f>H46=I46</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12342,7 +12348,7 @@
         <v>703</v>
       </c>
       <c r="J47" t="b">
-        <f>H47=I47</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12372,7 +12378,7 @@
         <v>702</v>
       </c>
       <c r="J48" t="b">
-        <f>H48=I48</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12402,7 +12408,7 @@
         <v>703</v>
       </c>
       <c r="J49" t="b">
-        <f>H49=I49</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12432,7 +12438,7 @@
         <v>703</v>
       </c>
       <c r="J50" t="b">
-        <f>H50=I50</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12462,7 +12468,7 @@
         <v>702</v>
       </c>
       <c r="J51" t="b">
-        <f>H51=I51</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12492,7 +12498,7 @@
         <v>702</v>
       </c>
       <c r="J52" t="b">
-        <f>H52=I52</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12522,7 +12528,7 @@
         <v>702</v>
       </c>
       <c r="J53" t="b">
-        <f>H53=I53</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12552,7 +12558,7 @@
         <v>702</v>
       </c>
       <c r="J54" t="b">
-        <f>H54=I54</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12582,7 +12588,7 @@
         <v>702</v>
       </c>
       <c r="J55" t="b">
-        <f>H55=I55</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12612,7 +12618,7 @@
         <v>703</v>
       </c>
       <c r="J56" t="b">
-        <f>H56=I56</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12642,7 +12648,7 @@
         <v>702</v>
       </c>
       <c r="J57" t="b">
-        <f>H57=I57</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12672,7 +12678,7 @@
         <v>702</v>
       </c>
       <c r="J58" t="b">
-        <f>H58=I58</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12702,7 +12708,7 @@
         <v>702</v>
       </c>
       <c r="J59" t="b">
-        <f>H59=I59</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12732,7 +12738,7 @@
         <v>702</v>
       </c>
       <c r="J60" t="b">
-        <f>H60=I60</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12762,7 +12768,7 @@
         <v>702</v>
       </c>
       <c r="J61" t="b">
-        <f>H61=I61</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12792,7 +12798,7 @@
         <v>702</v>
       </c>
       <c r="J62" t="b">
-        <f>H62=I62</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12822,7 +12828,7 @@
         <v>702</v>
       </c>
       <c r="J63" t="b">
-        <f>H63=I63</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12852,7 +12858,7 @@
         <v>703</v>
       </c>
       <c r="J64" t="b">
-        <f>H64=I64</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12882,7 +12888,7 @@
         <v>703</v>
       </c>
       <c r="J65" t="b">
-        <f>H65=I65</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12912,7 +12918,7 @@
         <v>702</v>
       </c>
       <c r="J66" t="b">
-        <f>H66=I66</f>
+        <f t="shared" ref="J66:J129" si="1">H66=I66</f>
         <v>1</v>
       </c>
     </row>
@@ -12942,7 +12948,7 @@
         <v>703</v>
       </c>
       <c r="J67" t="b">
-        <f>H67=I67</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -12972,7 +12978,7 @@
         <v>703</v>
       </c>
       <c r="J68" t="b">
-        <f>H68=I68</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13002,7 +13008,7 @@
         <v>703</v>
       </c>
       <c r="J69" t="b">
-        <f>H69=I69</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13032,7 +13038,7 @@
         <v>702</v>
       </c>
       <c r="J70" t="b">
-        <f>H70=I70</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13062,7 +13068,7 @@
         <v>702</v>
       </c>
       <c r="J71" t="b">
-        <f>H71=I71</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13092,7 +13098,7 @@
         <v>702</v>
       </c>
       <c r="J72" t="b">
-        <f>H72=I72</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13122,7 +13128,7 @@
         <v>703</v>
       </c>
       <c r="J73" t="b">
-        <f>H73=I73</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13152,7 +13158,7 @@
         <v>702</v>
       </c>
       <c r="J74" t="b">
-        <f>H74=I74</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13182,7 +13188,7 @@
         <v>703</v>
       </c>
       <c r="J75" t="b">
-        <f>H75=I75</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13212,7 +13218,7 @@
         <v>702</v>
       </c>
       <c r="J76" t="b">
-        <f>H76=I76</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13242,7 +13248,7 @@
         <v>702</v>
       </c>
       <c r="J77" t="b">
-        <f>H77=I77</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13272,7 +13278,7 @@
         <v>702</v>
       </c>
       <c r="J78" t="b">
-        <f>H78=I78</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13302,7 +13308,7 @@
         <v>703</v>
       </c>
       <c r="J79" t="b">
-        <f>H79=I79</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13332,7 +13338,7 @@
         <v>703</v>
       </c>
       <c r="J80" t="b">
-        <f>H80=I80</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13362,7 +13368,7 @@
         <v>702</v>
       </c>
       <c r="J81" t="b">
-        <f>H81=I81</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13392,7 +13398,7 @@
         <v>702</v>
       </c>
       <c r="J82" t="b">
-        <f>H82=I82</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13422,7 +13428,7 @@
         <v>702</v>
       </c>
       <c r="J83" t="b">
-        <f>H83=I83</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13452,7 +13458,7 @@
         <v>702</v>
       </c>
       <c r="J84" t="b">
-        <f>H84=I84</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13482,7 +13488,7 @@
         <v>702</v>
       </c>
       <c r="J85" t="b">
-        <f>H85=I85</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13512,7 +13518,7 @@
         <v>702</v>
       </c>
       <c r="J86" t="b">
-        <f>H86=I86</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13542,7 +13548,7 @@
         <v>703</v>
       </c>
       <c r="J87" t="b">
-        <f>H87=I87</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13572,7 +13578,7 @@
         <v>702</v>
       </c>
       <c r="J88" t="b">
-        <f>H88=I88</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13602,7 +13608,7 @@
         <v>703</v>
       </c>
       <c r="J89" t="b">
-        <f>H89=I89</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13632,7 +13638,7 @@
         <v>702</v>
       </c>
       <c r="J90" t="b">
-        <f>H90=I90</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13662,7 +13668,7 @@
         <v>702</v>
       </c>
       <c r="J91" t="b">
-        <f>H91=I91</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13692,7 +13698,7 @@
         <v>703</v>
       </c>
       <c r="J92" t="b">
-        <f>H92=I92</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13722,7 +13728,7 @@
         <v>702</v>
       </c>
       <c r="J93" t="b">
-        <f>H93=I93</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13752,7 +13758,7 @@
         <v>703</v>
       </c>
       <c r="J94" t="b">
-        <f>H94=I94</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13782,7 +13788,7 @@
         <v>703</v>
       </c>
       <c r="J95" t="b">
-        <f>H95=I95</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13812,7 +13818,7 @@
         <v>702</v>
       </c>
       <c r="J96" t="b">
-        <f>H96=I96</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13842,7 +13848,7 @@
         <v>702</v>
       </c>
       <c r="J97" t="b">
-        <f>H97=I97</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13872,7 +13878,7 @@
         <v>702</v>
       </c>
       <c r="J98" t="b">
-        <f>H98=I98</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13902,7 +13908,7 @@
         <v>702</v>
       </c>
       <c r="J99" t="b">
-        <f>H99=I99</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13932,7 +13938,7 @@
         <v>702</v>
       </c>
       <c r="J100" t="b">
-        <f>H100=I100</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13962,7 +13968,7 @@
         <v>703</v>
       </c>
       <c r="J101" t="b">
-        <f>H101=I101</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13992,7 +13998,7 @@
         <v>703</v>
       </c>
       <c r="J102" t="b">
-        <f>H102=I102</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14022,7 +14028,7 @@
         <v>702</v>
       </c>
       <c r="J103" t="b">
-        <f>H103=I103</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14052,7 +14058,7 @@
         <v>702</v>
       </c>
       <c r="J104" t="b">
-        <f>H104=I104</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14082,7 +14088,7 @@
         <v>703</v>
       </c>
       <c r="J105" t="b">
-        <f>H105=I105</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14112,7 +14118,7 @@
         <v>702</v>
       </c>
       <c r="J106" t="b">
-        <f>H106=I106</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14142,7 +14148,7 @@
         <v>703</v>
       </c>
       <c r="J107" t="b">
-        <f>H107=I107</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14172,7 +14178,7 @@
         <v>702</v>
       </c>
       <c r="J108" t="b">
-        <f>H108=I108</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14202,7 +14208,7 @@
         <v>702</v>
       </c>
       <c r="J109" t="b">
-        <f>H109=I109</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14232,7 +14238,7 @@
         <v>702</v>
       </c>
       <c r="J110" t="b">
-        <f>H110=I110</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14262,7 +14268,7 @@
         <v>702</v>
       </c>
       <c r="J111" t="b">
-        <f>H111=I111</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14292,7 +14298,7 @@
         <v>702</v>
       </c>
       <c r="J112" t="b">
-        <f>H112=I112</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14322,7 +14328,7 @@
         <v>703</v>
       </c>
       <c r="J113" t="b">
-        <f>H113=I113</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14352,7 +14358,7 @@
         <v>702</v>
       </c>
       <c r="J114" t="b">
-        <f>H114=I114</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14382,7 +14388,7 @@
         <v>702</v>
       </c>
       <c r="J115" t="b">
-        <f>H115=I115</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14412,7 +14418,7 @@
         <v>703</v>
       </c>
       <c r="J116" t="b">
-        <f>H116=I116</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14442,7 +14448,7 @@
         <v>703</v>
       </c>
       <c r="J117" t="b">
-        <f>H117=I117</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14472,7 +14478,7 @@
         <v>703</v>
       </c>
       <c r="J118" t="b">
-        <f>H118=I118</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14502,7 +14508,7 @@
         <v>702</v>
       </c>
       <c r="J119" t="b">
-        <f>H119=I119</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14532,7 +14538,7 @@
         <v>702</v>
       </c>
       <c r="J120" t="b">
-        <f>H120=I120</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14562,7 +14568,7 @@
         <v>702</v>
       </c>
       <c r="J121" t="b">
-        <f>H121=I121</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14592,7 +14598,7 @@
         <v>703</v>
       </c>
       <c r="J122" t="b">
-        <f>H122=I122</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14622,7 +14628,7 @@
         <v>702</v>
       </c>
       <c r="J123" t="b">
-        <f>H123=I123</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14652,7 +14658,7 @@
         <v>702</v>
       </c>
       <c r="J124" t="b">
-        <f>H124=I124</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14682,7 +14688,7 @@
         <v>703</v>
       </c>
       <c r="J125" t="b">
-        <f>H125=I125</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14712,7 +14718,7 @@
         <v>703</v>
       </c>
       <c r="J126" t="b">
-        <f>H126=I126</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14742,7 +14748,7 @@
         <v>702</v>
       </c>
       <c r="J127" t="b">
-        <f>H127=I127</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14772,7 +14778,7 @@
         <v>702</v>
       </c>
       <c r="J128" t="b">
-        <f>H128=I128</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14802,7 +14808,7 @@
         <v>702</v>
       </c>
       <c r="J129" t="b">
-        <f>H129=I129</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14832,7 +14838,7 @@
         <v>702</v>
       </c>
       <c r="J130" t="b">
-        <f>H130=I130</f>
+        <f t="shared" ref="J130:J193" si="2">H130=I130</f>
         <v>1</v>
       </c>
     </row>
@@ -14862,7 +14868,7 @@
         <v>702</v>
       </c>
       <c r="J131" t="b">
-        <f>H131=I131</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14892,7 +14898,7 @@
         <v>702</v>
       </c>
       <c r="J132" t="b">
-        <f>H132=I132</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14922,7 +14928,7 @@
         <v>702</v>
       </c>
       <c r="J133" t="b">
-        <f>H133=I133</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14952,7 +14958,7 @@
         <v>702</v>
       </c>
       <c r="J134" t="b">
-        <f>H134=I134</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -14982,7 +14988,7 @@
         <v>702</v>
       </c>
       <c r="J135" t="b">
-        <f>H135=I135</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15012,7 +15018,7 @@
         <v>702</v>
       </c>
       <c r="J136" t="b">
-        <f>H136=I136</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15042,7 +15048,7 @@
         <v>702</v>
       </c>
       <c r="J137" t="b">
-        <f>H137=I137</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15072,7 +15078,7 @@
         <v>702</v>
       </c>
       <c r="J138" t="b">
-        <f>H138=I138</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15102,7 +15108,7 @@
         <v>702</v>
       </c>
       <c r="J139" t="b">
-        <f>H139=I139</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15132,7 +15138,7 @@
         <v>703</v>
       </c>
       <c r="J140" t="b">
-        <f>H140=I140</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15162,7 +15168,7 @@
         <v>703</v>
       </c>
       <c r="J141" t="b">
-        <f>H141=I141</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15192,7 +15198,7 @@
         <v>703</v>
       </c>
       <c r="J142" t="b">
-        <f>H142=I142</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15222,7 +15228,7 @@
         <v>703</v>
       </c>
       <c r="J143" t="b">
-        <f>H143=I143</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15252,7 +15258,7 @@
         <v>703</v>
       </c>
       <c r="J144" t="b">
-        <f>H144=I144</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15282,7 +15288,7 @@
         <v>702</v>
       </c>
       <c r="J145" t="b">
-        <f>H145=I145</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15312,7 +15318,7 @@
         <v>702</v>
       </c>
       <c r="J146" t="b">
-        <f>H146=I146</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15342,7 +15348,7 @@
         <v>702</v>
       </c>
       <c r="J147" t="b">
-        <f>H147=I147</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15372,7 +15378,7 @@
         <v>702</v>
       </c>
       <c r="J148" t="b">
-        <f>H148=I148</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15402,7 +15408,7 @@
         <v>702</v>
       </c>
       <c r="J149" t="b">
-        <f>H149=I149</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15432,7 +15438,7 @@
         <v>702</v>
       </c>
       <c r="J150" t="b">
-        <f>H150=I150</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15462,7 +15468,7 @@
         <v>702</v>
       </c>
       <c r="J151" t="b">
-        <f>H151=I151</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15492,7 +15498,7 @@
         <v>702</v>
       </c>
       <c r="J152" t="b">
-        <f>H152=I152</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15522,7 +15528,7 @@
         <v>702</v>
       </c>
       <c r="J153" t="b">
-        <f>H153=I153</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15552,7 +15558,7 @@
         <v>702</v>
       </c>
       <c r="J154" t="b">
-        <f>H154=I154</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15582,7 +15588,7 @@
         <v>702</v>
       </c>
       <c r="J155" t="b">
-        <f>H155=I155</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15612,7 +15618,7 @@
         <v>702</v>
       </c>
       <c r="J156" t="b">
-        <f>H156=I156</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15642,7 +15648,7 @@
         <v>702</v>
       </c>
       <c r="J157" t="b">
-        <f>H157=I157</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15672,7 +15678,7 @@
         <v>703</v>
       </c>
       <c r="J158" t="b">
-        <f>H158=I158</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15702,7 +15708,7 @@
         <v>702</v>
       </c>
       <c r="J159" t="b">
-        <f>H159=I159</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15732,7 +15738,7 @@
         <v>702</v>
       </c>
       <c r="J160" t="b">
-        <f>H160=I160</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15762,7 +15768,7 @@
         <v>703</v>
       </c>
       <c r="J161" t="b">
-        <f>H161=I161</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15792,7 +15798,7 @@
         <v>702</v>
       </c>
       <c r="J162" t="b">
-        <f>H162=I162</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15822,7 +15828,7 @@
         <v>702</v>
       </c>
       <c r="J163" t="b">
-        <f>H163=I163</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15852,7 +15858,7 @@
         <v>702</v>
       </c>
       <c r="J164" t="b">
-        <f>H164=I164</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15882,7 +15888,7 @@
         <v>703</v>
       </c>
       <c r="J165" t="b">
-        <f>H165=I165</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15912,7 +15918,7 @@
         <v>702</v>
       </c>
       <c r="J166" t="b">
-        <f>H166=I166</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15942,7 +15948,7 @@
         <v>703</v>
       </c>
       <c r="J167" t="b">
-        <f>H167=I167</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -15972,7 +15978,7 @@
         <v>702</v>
       </c>
       <c r="J168" t="b">
-        <f>H168=I168</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16002,7 +16008,7 @@
         <v>703</v>
       </c>
       <c r="J169" t="b">
-        <f>H169=I169</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16032,7 +16038,7 @@
         <v>703</v>
       </c>
       <c r="J170" t="b">
-        <f>H170=I170</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16062,7 +16068,7 @@
         <v>703</v>
       </c>
       <c r="J171" t="b">
-        <f>H171=I171</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16092,7 +16098,7 @@
         <v>702</v>
       </c>
       <c r="J172" t="b">
-        <f>H172=I172</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16122,7 +16128,7 @@
         <v>702</v>
       </c>
       <c r="J173" t="b">
-        <f>H173=I173</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16152,7 +16158,7 @@
         <v>702</v>
       </c>
       <c r="J174" t="b">
-        <f>H174=I174</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16182,7 +16188,7 @@
         <v>702</v>
       </c>
       <c r="J175" t="b">
-        <f>H175=I175</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16212,7 +16218,7 @@
         <v>702</v>
       </c>
       <c r="J176" t="b">
-        <f>H176=I176</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16242,7 +16248,7 @@
         <v>703</v>
       </c>
       <c r="J177" t="b">
-        <f>H177=I177</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16272,7 +16278,7 @@
         <v>702</v>
       </c>
       <c r="J178" t="b">
-        <f>H178=I178</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16302,7 +16308,7 @@
         <v>702</v>
       </c>
       <c r="J179" t="b">
-        <f>H179=I179</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16332,7 +16338,7 @@
         <v>703</v>
       </c>
       <c r="J180" t="b">
-        <f>H180=I180</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16362,7 +16368,7 @@
         <v>702</v>
       </c>
       <c r="J181" t="b">
-        <f>H181=I181</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16392,7 +16398,7 @@
         <v>703</v>
       </c>
       <c r="J182" t="b">
-        <f>H182=I182</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16422,7 +16428,7 @@
         <v>702</v>
       </c>
       <c r="J183" t="b">
-        <f>H183=I183</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16452,7 +16458,7 @@
         <v>702</v>
       </c>
       <c r="J184" t="b">
-        <f>H184=I184</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16482,7 +16488,7 @@
         <v>702</v>
       </c>
       <c r="J185" t="b">
-        <f>H185=I185</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16512,7 +16518,7 @@
         <v>702</v>
       </c>
       <c r="J186" t="b">
-        <f>H186=I186</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16542,7 +16548,7 @@
         <v>703</v>
       </c>
       <c r="J187" t="b">
-        <f>H187=I187</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16572,7 +16578,7 @@
         <v>702</v>
       </c>
       <c r="J188" t="b">
-        <f>H188=I188</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16602,7 +16608,7 @@
         <v>702</v>
       </c>
       <c r="J189" t="b">
-        <f>H189=I189</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16632,7 +16638,7 @@
         <v>702</v>
       </c>
       <c r="J190" t="b">
-        <f>H190=I190</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16662,7 +16668,7 @@
         <v>702</v>
       </c>
       <c r="J191" t="b">
-        <f>H191=I191</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16692,7 +16698,7 @@
         <v>702</v>
       </c>
       <c r="J192" t="b">
-        <f>H192=I192</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16722,7 +16728,7 @@
         <v>703</v>
       </c>
       <c r="J193" t="b">
-        <f>H193=I193</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16752,7 +16758,7 @@
         <v>703</v>
       </c>
       <c r="J194" t="b">
-        <f>H194=I194</f>
+        <f t="shared" ref="J194:J257" si="3">H194=I194</f>
         <v>1</v>
       </c>
     </row>
@@ -16782,7 +16788,7 @@
         <v>703</v>
       </c>
       <c r="J195" t="b">
-        <f>H195=I195</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16812,7 +16818,7 @@
         <v>702</v>
       </c>
       <c r="J196" t="b">
-        <f>H196=I196</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16842,7 +16848,7 @@
         <v>703</v>
       </c>
       <c r="J197" t="b">
-        <f>H197=I197</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16872,7 +16878,7 @@
         <v>703</v>
       </c>
       <c r="J198" t="b">
-        <f>H198=I198</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16902,7 +16908,7 @@
         <v>703</v>
       </c>
       <c r="J199" t="b">
-        <f>H199=I199</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16932,7 +16938,7 @@
         <v>702</v>
       </c>
       <c r="J200" t="b">
-        <f>H200=I200</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16962,7 +16968,7 @@
         <v>703</v>
       </c>
       <c r="J201" t="b">
-        <f>H201=I201</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -16992,7 +16998,7 @@
         <v>702</v>
       </c>
       <c r="J202" t="b">
-        <f>H202=I202</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17022,7 +17028,7 @@
         <v>702</v>
       </c>
       <c r="J203" t="b">
-        <f>H203=I203</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17052,7 +17058,7 @@
         <v>702</v>
       </c>
       <c r="J204" t="b">
-        <f>H204=I204</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17082,7 +17088,7 @@
         <v>703</v>
       </c>
       <c r="J205" t="b">
-        <f>H205=I205</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17112,7 +17118,7 @@
         <v>702</v>
       </c>
       <c r="J206" t="b">
-        <f>H206=I206</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17142,7 +17148,7 @@
         <v>704</v>
       </c>
       <c r="J207" t="b">
-        <f>H207=I207</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17172,7 +17178,7 @@
         <v>702</v>
       </c>
       <c r="J208" t="b">
-        <f>H208=I208</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17202,7 +17208,7 @@
         <v>702</v>
       </c>
       <c r="J209" t="b">
-        <f>H209=I209</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17232,7 +17238,7 @@
         <v>702</v>
       </c>
       <c r="J210" t="b">
-        <f>H210=I210</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17262,7 +17268,7 @@
         <v>702</v>
       </c>
       <c r="J211" t="b">
-        <f>H211=I211</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17292,7 +17298,7 @@
         <v>702</v>
       </c>
       <c r="J212" t="b">
-        <f>H212=I212</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17322,7 +17328,7 @@
         <v>703</v>
       </c>
       <c r="J213" t="b">
-        <f>H213=I213</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17352,7 +17358,7 @@
         <v>702</v>
       </c>
       <c r="J214" t="b">
-        <f>H214=I214</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17382,7 +17388,7 @@
         <v>702</v>
       </c>
       <c r="J215" t="b">
-        <f>H215=I215</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17412,7 +17418,7 @@
         <v>702</v>
       </c>
       <c r="J216" t="b">
-        <f>H216=I216</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17442,7 +17448,7 @@
         <v>702</v>
       </c>
       <c r="J217" t="b">
-        <f>H217=I217</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17472,7 +17478,7 @@
         <v>702</v>
       </c>
       <c r="J218" t="b">
-        <f>H218=I218</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17502,7 +17508,7 @@
         <v>703</v>
       </c>
       <c r="J219" t="b">
-        <f>H219=I219</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17532,7 +17538,7 @@
         <v>702</v>
       </c>
       <c r="J220" t="b">
-        <f>H220=I220</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17562,7 +17568,7 @@
         <v>702</v>
       </c>
       <c r="J221" t="b">
-        <f>H221=I221</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17592,7 +17598,7 @@
         <v>702</v>
       </c>
       <c r="J222" t="b">
-        <f>H222=I222</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17622,7 +17628,7 @@
         <v>702</v>
       </c>
       <c r="J223" t="b">
-        <f>H223=I223</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17652,7 +17658,7 @@
         <v>702</v>
       </c>
       <c r="J224" t="b">
-        <f>H224=I224</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17682,7 +17688,7 @@
         <v>702</v>
       </c>
       <c r="J225" t="b">
-        <f>H225=I225</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17712,7 +17718,7 @@
         <v>703</v>
       </c>
       <c r="J226" t="b">
-        <f>H226=I226</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17742,7 +17748,7 @@
         <v>702</v>
       </c>
       <c r="J227" t="b">
-        <f>H227=I227</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17772,7 +17778,7 @@
         <v>703</v>
       </c>
       <c r="J228" t="b">
-        <f>H228=I228</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17802,7 +17808,7 @@
         <v>702</v>
       </c>
       <c r="J229" t="b">
-        <f>H229=I229</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17832,7 +17838,7 @@
         <v>702</v>
       </c>
       <c r="J230" t="b">
-        <f>H230=I230</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17862,7 +17868,7 @@
         <v>702</v>
       </c>
       <c r="J231" t="b">
-        <f>H231=I231</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17892,7 +17898,7 @@
         <v>702</v>
       </c>
       <c r="J232" t="b">
-        <f>H232=I232</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17922,7 +17928,7 @@
         <v>703</v>
       </c>
       <c r="J233" t="b">
-        <f>H233=I233</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17952,7 +17958,7 @@
         <v>702</v>
       </c>
       <c r="J234" t="b">
-        <f>H234=I234</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -17982,7 +17988,7 @@
         <v>703</v>
       </c>
       <c r="J235" t="b">
-        <f>H235=I235</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18012,7 +18018,7 @@
         <v>703</v>
       </c>
       <c r="J236" t="b">
-        <f>H236=I236</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18042,7 +18048,7 @@
         <v>703</v>
       </c>
       <c r="J237" t="b">
-        <f>H237=I237</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18072,7 +18078,7 @@
         <v>702</v>
       </c>
       <c r="J238" t="b">
-        <f>H238=I238</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18102,7 +18108,7 @@
         <v>702</v>
       </c>
       <c r="J239" t="b">
-        <f>H239=I239</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18132,7 +18138,7 @@
         <v>702</v>
       </c>
       <c r="J240" t="b">
-        <f>H240=I240</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18162,7 +18168,7 @@
         <v>702</v>
       </c>
       <c r="J241" t="b">
-        <f>H241=I241</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18192,7 +18198,7 @@
         <v>702</v>
       </c>
       <c r="J242" t="b">
-        <f>H242=I242</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18222,7 +18228,7 @@
         <v>702</v>
       </c>
       <c r="J243" t="b">
-        <f>H243=I243</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18252,7 +18258,7 @@
         <v>702</v>
       </c>
       <c r="J244" t="b">
-        <f>H244=I244</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18282,7 +18288,7 @@
         <v>703</v>
       </c>
       <c r="J245" t="b">
-        <f>H245=I245</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18312,7 +18318,7 @@
         <v>702</v>
       </c>
       <c r="J246" t="b">
-        <f>H246=I246</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18342,7 +18348,7 @@
         <v>702</v>
       </c>
       <c r="J247" t="b">
-        <f>H247=I247</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18375,7 +18381,7 @@
         <v>702</v>
       </c>
       <c r="J248" t="b">
-        <f>H248=I248</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18405,7 +18411,7 @@
         <v>703</v>
       </c>
       <c r="J249" t="b">
-        <f>H249=I249</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18435,7 +18441,7 @@
         <v>703</v>
       </c>
       <c r="J250" t="b">
-        <f>H250=I250</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18465,7 +18471,7 @@
         <v>702</v>
       </c>
       <c r="J251" t="b">
-        <f>H251=I251</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18495,7 +18501,7 @@
         <v>702</v>
       </c>
       <c r="J252" t="b">
-        <f>H252=I252</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18525,7 +18531,7 @@
         <v>702</v>
       </c>
       <c r="J253" t="b">
-        <f>H253=I253</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18555,7 +18561,7 @@
         <v>702</v>
       </c>
       <c r="J254" t="b">
-        <f>H254=I254</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18585,7 +18591,7 @@
         <v>702</v>
       </c>
       <c r="J255" t="b">
-        <f>H255=I255</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18615,7 +18621,7 @@
         <v>702</v>
       </c>
       <c r="J256" t="b">
-        <f>H256=I256</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18645,7 +18651,7 @@
         <v>702</v>
       </c>
       <c r="J257" t="b">
-        <f>H257=I257</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -18675,7 +18681,7 @@
         <v>702</v>
       </c>
       <c r="J258" t="b">
-        <f>H258=I258</f>
+        <f t="shared" ref="J258:J321" si="4">H258=I258</f>
         <v>1</v>
       </c>
     </row>
@@ -18705,7 +18711,7 @@
         <v>703</v>
       </c>
       <c r="J259" t="b">
-        <f>H259=I259</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18735,7 +18741,7 @@
         <v>703</v>
       </c>
       <c r="J260" t="b">
-        <f>H260=I260</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18765,7 +18771,7 @@
         <v>702</v>
       </c>
       <c r="J261" t="b">
-        <f>H261=I261</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18795,7 +18801,7 @@
         <v>702</v>
       </c>
       <c r="J262" t="b">
-        <f>H262=I262</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18825,7 +18831,7 @@
         <v>702</v>
       </c>
       <c r="J263" t="b">
-        <f>H263=I263</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18855,7 +18861,7 @@
         <v>703</v>
       </c>
       <c r="J264" t="b">
-        <f>H264=I264</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18885,7 +18891,7 @@
         <v>702</v>
       </c>
       <c r="J265" t="b">
-        <f>H265=I265</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18915,7 +18921,7 @@
         <v>702</v>
       </c>
       <c r="J266" t="b">
-        <f>H266=I266</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18945,7 +18951,7 @@
         <v>702</v>
       </c>
       <c r="J267" t="b">
-        <f>H267=I267</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -18975,7 +18981,7 @@
         <v>702</v>
       </c>
       <c r="J268" t="b">
-        <f>H268=I268</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19005,7 +19011,7 @@
         <v>703</v>
       </c>
       <c r="J269" t="b">
-        <f>H269=I269</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19035,7 +19041,7 @@
         <v>702</v>
       </c>
       <c r="J270" t="b">
-        <f>H270=I270</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19065,7 +19071,7 @@
         <v>702</v>
       </c>
       <c r="J271" t="b">
-        <f>H271=I271</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19095,7 +19101,7 @@
         <v>703</v>
       </c>
       <c r="J272" t="b">
-        <f>H272=I272</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19125,7 +19131,7 @@
         <v>702</v>
       </c>
       <c r="J273" t="b">
-        <f>H273=I273</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19155,7 +19161,7 @@
         <v>703</v>
       </c>
       <c r="J274" t="b">
-        <f>H274=I274</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19185,7 +19191,7 @@
         <v>703</v>
       </c>
       <c r="J275" t="b">
-        <f>H275=I275</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19215,7 +19221,7 @@
         <v>703</v>
       </c>
       <c r="J276" t="b">
-        <f>H276=I276</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19245,7 +19251,7 @@
         <v>702</v>
       </c>
       <c r="J277" t="b">
-        <f>H277=I277</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19275,7 +19281,7 @@
         <v>702</v>
       </c>
       <c r="J278" t="b">
-        <f>H278=I278</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19305,7 +19311,7 @@
         <v>702</v>
       </c>
       <c r="J279" t="b">
-        <f>H279=I279</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19335,7 +19341,7 @@
         <v>702</v>
       </c>
       <c r="J280" t="b">
-        <f>H280=I280</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19365,7 +19371,7 @@
         <v>703</v>
       </c>
       <c r="J281" t="b">
-        <f>H281=I281</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19395,7 +19401,7 @@
         <v>703</v>
       </c>
       <c r="J282" t="b">
-        <f>H282=I282</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19425,7 +19431,7 @@
         <v>702</v>
       </c>
       <c r="J283" t="b">
-        <f>H283=I283</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19455,7 +19461,7 @@
         <v>703</v>
       </c>
       <c r="J284" t="b">
-        <f>H284=I284</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19485,7 +19491,7 @@
         <v>702</v>
       </c>
       <c r="J285" t="b">
-        <f>H285=I285</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19515,7 +19521,7 @@
         <v>703</v>
       </c>
       <c r="J286" t="b">
-        <f>H286=I286</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19545,7 +19551,7 @@
         <v>702</v>
       </c>
       <c r="J287" t="b">
-        <f>H287=I287</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19575,7 +19581,7 @@
         <v>703</v>
       </c>
       <c r="J288" t="b">
-        <f>H288=I288</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19605,7 +19611,7 @@
         <v>703</v>
       </c>
       <c r="J289" t="b">
-        <f>H289=I289</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19635,7 +19641,7 @@
         <v>702</v>
       </c>
       <c r="J290" t="b">
-        <f>H290=I290</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19665,7 +19671,7 @@
         <v>702</v>
       </c>
       <c r="J291" t="b">
-        <f>H291=I291</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19695,7 +19701,7 @@
         <v>703</v>
       </c>
       <c r="J292" t="b">
-        <f>H292=I292</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19725,7 +19731,7 @@
         <v>703</v>
       </c>
       <c r="J293" t="b">
-        <f>H293=I293</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19755,7 +19761,7 @@
         <v>702</v>
       </c>
       <c r="J294" t="b">
-        <f>H294=I294</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19785,7 +19791,7 @@
         <v>702</v>
       </c>
       <c r="J295" t="b">
-        <f>H295=I295</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19815,7 +19821,7 @@
         <v>702</v>
       </c>
       <c r="J296" t="b">
-        <f>H296=I296</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19845,7 +19851,7 @@
         <v>703</v>
       </c>
       <c r="J297" t="b">
-        <f>H297=I297</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19875,7 +19881,7 @@
         <v>702</v>
       </c>
       <c r="J298" t="b">
-        <f>H298=I298</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19905,7 +19911,7 @@
         <v>702</v>
       </c>
       <c r="J299" t="b">
-        <f>H299=I299</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19935,7 +19941,7 @@
         <v>703</v>
       </c>
       <c r="J300" t="b">
-        <f>H300=I300</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19965,7 +19971,7 @@
         <v>702</v>
       </c>
       <c r="J301" t="b">
-        <f>H301=I301</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -19995,7 +20001,7 @@
         <v>702</v>
       </c>
       <c r="J302" t="b">
-        <f>H302=I302</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20025,7 +20031,7 @@
         <v>703</v>
       </c>
       <c r="J303" t="b">
-        <f>H303=I303</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20055,7 +20061,7 @@
         <v>702</v>
       </c>
       <c r="J304" t="b">
-        <f>H304=I304</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20085,7 +20091,7 @@
         <v>702</v>
       </c>
       <c r="J305" t="b">
-        <f>H305=I305</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20115,7 +20121,7 @@
         <v>702</v>
       </c>
       <c r="J306" t="b">
-        <f>H306=I306</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20145,7 +20151,7 @@
         <v>702</v>
       </c>
       <c r="J307" t="b">
-        <f>H307=I307</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20175,7 +20181,7 @@
         <v>702</v>
       </c>
       <c r="J308" t="b">
-        <f>H308=I308</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20205,7 +20211,7 @@
         <v>702</v>
       </c>
       <c r="J309" t="b">
-        <f>H309=I309</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20235,7 +20241,7 @@
         <v>702</v>
       </c>
       <c r="J310" t="b">
-        <f>H310=I310</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20265,7 +20271,7 @@
         <v>702</v>
       </c>
       <c r="J311" t="b">
-        <f>H311=I311</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20295,7 +20301,7 @@
         <v>702</v>
       </c>
       <c r="J312" t="b">
-        <f>H312=I312</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20325,7 +20331,7 @@
         <v>702</v>
       </c>
       <c r="J313" t="b">
-        <f>H313=I313</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20355,7 +20361,7 @@
         <v>702</v>
       </c>
       <c r="J314" t="b">
-        <f>H314=I314</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20385,7 +20391,7 @@
         <v>702</v>
       </c>
       <c r="J315" t="b">
-        <f>H315=I315</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20415,7 +20421,7 @@
         <v>702</v>
       </c>
       <c r="J316" t="b">
-        <f>H316=I316</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20445,7 +20451,7 @@
         <v>702</v>
       </c>
       <c r="J317" t="b">
-        <f>H317=I317</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20475,7 +20481,7 @@
         <v>702</v>
       </c>
       <c r="J318" t="b">
-        <f>H318=I318</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20505,7 +20511,7 @@
         <v>702</v>
       </c>
       <c r="J319" t="b">
-        <f>H319=I319</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20535,7 +20541,7 @@
         <v>703</v>
       </c>
       <c r="J320" t="b">
-        <f>H320=I320</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20565,7 +20571,7 @@
         <v>702</v>
       </c>
       <c r="J321" t="b">
-        <f>H321=I321</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -20595,7 +20601,7 @@
         <v>703</v>
       </c>
       <c r="J322" t="b">
-        <f>H322=I322</f>
+        <f t="shared" ref="J322:J385" si="5">H322=I322</f>
         <v>1</v>
       </c>
     </row>
@@ -20625,7 +20631,7 @@
         <v>703</v>
       </c>
       <c r="J323" t="b">
-        <f>H323=I323</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20655,7 +20661,7 @@
         <v>702</v>
       </c>
       <c r="J324" t="b">
-        <f>H324=I324</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20685,7 +20691,7 @@
         <v>702</v>
       </c>
       <c r="J325" t="b">
-        <f>H325=I325</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20715,7 +20721,7 @@
         <v>702</v>
       </c>
       <c r="J326" t="b">
-        <f>H326=I326</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20745,7 +20751,7 @@
         <v>702</v>
       </c>
       <c r="J327" t="b">
-        <f>H327=I327</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20775,7 +20781,7 @@
         <v>703</v>
       </c>
       <c r="J328" t="b">
-        <f>H328=I328</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20805,7 +20811,7 @@
         <v>702</v>
       </c>
       <c r="J329" t="b">
-        <f>H329=I329</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20835,7 +20841,7 @@
         <v>703</v>
       </c>
       <c r="J330" t="b">
-        <f>H330=I330</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20865,7 +20871,7 @@
         <v>703</v>
       </c>
       <c r="J331" t="b">
-        <f>H331=I331</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20895,7 +20901,7 @@
         <v>702</v>
       </c>
       <c r="J332" t="b">
-        <f>H332=I332</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20925,7 +20931,7 @@
         <v>702</v>
       </c>
       <c r="J333" t="b">
-        <f>H333=I333</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20955,7 +20961,7 @@
         <v>702</v>
       </c>
       <c r="J334" t="b">
-        <f>H334=I334</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -20985,7 +20991,7 @@
         <v>703</v>
       </c>
       <c r="J335" t="b">
-        <f>H335=I335</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21015,7 +21021,7 @@
         <v>702</v>
       </c>
       <c r="J336" t="b">
-        <f>H336=I336</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21045,7 +21051,7 @@
         <v>702</v>
       </c>
       <c r="J337" t="b">
-        <f>H337=I337</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21075,7 +21081,7 @@
         <v>702</v>
       </c>
       <c r="J338" t="b">
-        <f>H338=I338</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21105,7 +21111,7 @@
         <v>702</v>
       </c>
       <c r="J339" t="b">
-        <f>H339=I339</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21135,7 +21141,7 @@
         <v>702</v>
       </c>
       <c r="J340" t="b">
-        <f>H340=I340</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21165,7 +21171,7 @@
         <v>703</v>
       </c>
       <c r="J341" t="b">
-        <f>H341=I341</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21195,7 +21201,7 @@
         <v>703</v>
       </c>
       <c r="J342" t="b">
-        <f>H342=I342</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21225,7 +21231,7 @@
         <v>702</v>
       </c>
       <c r="J343" t="b">
-        <f>H343=I343</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21255,7 +21261,7 @@
         <v>703</v>
       </c>
       <c r="J344" t="b">
-        <f>H344=I344</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21285,7 +21291,7 @@
         <v>702</v>
       </c>
       <c r="J345" t="b">
-        <f>H345=I345</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21315,7 +21321,7 @@
         <v>702</v>
       </c>
       <c r="J346" t="b">
-        <f>H346=I346</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21345,7 +21351,7 @@
         <v>702</v>
       </c>
       <c r="J347" t="b">
-        <f>H347=I347</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21375,7 +21381,7 @@
         <v>702</v>
       </c>
       <c r="J348" t="b">
-        <f>H348=I348</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21405,7 +21411,7 @@
         <v>702</v>
       </c>
       <c r="J349" t="b">
-        <f>H349=I349</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21435,7 +21441,7 @@
         <v>702</v>
       </c>
       <c r="J350" t="b">
-        <f>H350=I350</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21465,7 +21471,7 @@
         <v>702</v>
       </c>
       <c r="J351" t="b">
-        <f>H351=I351</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21495,7 +21501,7 @@
         <v>702</v>
       </c>
       <c r="J352" t="b">
-        <f>H352=I352</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21525,7 +21531,7 @@
         <v>702</v>
       </c>
       <c r="J353" t="b">
-        <f>H353=I353</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21555,7 +21561,7 @@
         <v>702</v>
       </c>
       <c r="J354" t="b">
-        <f>H354=I354</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21585,7 +21591,7 @@
         <v>702</v>
       </c>
       <c r="J355" t="b">
-        <f>H355=I355</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21615,7 +21621,7 @@
         <v>702</v>
       </c>
       <c r="J356" t="b">
-        <f>H356=I356</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21645,7 +21651,7 @@
         <v>702</v>
       </c>
       <c r="J357" t="b">
-        <f>H357=I357</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21675,7 +21681,7 @@
         <v>703</v>
       </c>
       <c r="J358" t="b">
-        <f>H358=I358</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21705,7 +21711,7 @@
         <v>703</v>
       </c>
       <c r="J359" t="b">
-        <f>H359=I359</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21735,7 +21741,7 @@
         <v>702</v>
       </c>
       <c r="J360" t="b">
-        <f>H360=I360</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21765,7 +21771,7 @@
         <v>703</v>
       </c>
       <c r="J361" t="b">
-        <f>H361=I361</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21795,7 +21801,7 @@
         <v>703</v>
       </c>
       <c r="J362" t="b">
-        <f>H362=I362</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21825,7 +21831,7 @@
         <v>702</v>
       </c>
       <c r="J363" t="b">
-        <f>H363=I363</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21855,7 +21861,7 @@
         <v>702</v>
       </c>
       <c r="J364" t="b">
-        <f>H364=I364</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21885,7 +21891,7 @@
         <v>702</v>
       </c>
       <c r="J365" t="b">
-        <f>H365=I365</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21915,7 +21921,7 @@
         <v>703</v>
       </c>
       <c r="J366" t="b">
-        <f>H366=I366</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21945,7 +21951,7 @@
         <v>702</v>
       </c>
       <c r="J367" t="b">
-        <f>H367=I367</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -21975,7 +21981,7 @@
         <v>703</v>
       </c>
       <c r="J368" t="b">
-        <f>H368=I368</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22005,7 +22011,7 @@
         <v>702</v>
       </c>
       <c r="J369" t="b">
-        <f>H369=I369</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22035,7 +22041,7 @@
         <v>702</v>
       </c>
       <c r="J370" t="b">
-        <f>H370=I370</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22065,7 +22071,7 @@
         <v>702</v>
       </c>
       <c r="J371" t="b">
-        <f>H371=I371</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22095,7 +22101,7 @@
         <v>703</v>
       </c>
       <c r="J372" t="b">
-        <f>H372=I372</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22125,7 +22131,7 @@
         <v>703</v>
       </c>
       <c r="J373" t="b">
-        <f>H373=I373</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22155,7 +22161,7 @@
         <v>702</v>
       </c>
       <c r="J374" t="b">
-        <f>H374=I374</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22185,7 +22191,7 @@
         <v>702</v>
       </c>
       <c r="J375" t="b">
-        <f>H375=I375</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22215,7 +22221,7 @@
         <v>702</v>
       </c>
       <c r="J376" t="b">
-        <f>H376=I376</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22245,7 +22251,7 @@
         <v>702</v>
       </c>
       <c r="J377" t="b">
-        <f>H377=I377</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22275,7 +22281,7 @@
         <v>702</v>
       </c>
       <c r="J378" t="b">
-        <f>H378=I378</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22305,7 +22311,7 @@
         <v>702</v>
       </c>
       <c r="J379" t="b">
-        <f>H379=I379</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22335,7 +22341,7 @@
         <v>703</v>
       </c>
       <c r="J380" t="b">
-        <f>H380=I380</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22365,7 +22371,7 @@
         <v>702</v>
       </c>
       <c r="J381" t="b">
-        <f>H381=I381</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22395,7 +22401,7 @@
         <v>702</v>
       </c>
       <c r="J382" t="b">
-        <f>H382=I382</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22425,7 +22431,7 @@
         <v>703</v>
       </c>
       <c r="J383" t="b">
-        <f>H383=I383</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22455,7 +22461,7 @@
         <v>702</v>
       </c>
       <c r="J384" t="b">
-        <f>H384=I384</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22485,7 +22491,7 @@
         <v>702</v>
       </c>
       <c r="J385" t="b">
-        <f>H385=I385</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -22515,7 +22521,7 @@
         <v>703</v>
       </c>
       <c r="J386" t="b">
-        <f>H386=I386</f>
+        <f t="shared" ref="J386:J449" si="6">H386=I386</f>
         <v>1</v>
       </c>
     </row>
@@ -22545,7 +22551,7 @@
         <v>702</v>
       </c>
       <c r="J387" t="b">
-        <f>H387=I387</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22575,7 +22581,7 @@
         <v>702</v>
       </c>
       <c r="J388" t="b">
-        <f>H388=I388</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22605,7 +22611,7 @@
         <v>702</v>
       </c>
       <c r="J389" t="b">
-        <f>H389=I389</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22635,7 +22641,7 @@
         <v>702</v>
       </c>
       <c r="J390" t="b">
-        <f>H390=I390</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22665,7 +22671,7 @@
         <v>702</v>
       </c>
       <c r="J391" t="b">
-        <f>H391=I391</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22695,7 +22701,7 @@
         <v>703</v>
       </c>
       <c r="J392" t="b">
-        <f>H392=I392</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22725,7 +22731,7 @@
         <v>703</v>
       </c>
       <c r="J393" t="b">
-        <f>H393=I393</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22755,7 +22761,7 @@
         <v>702</v>
       </c>
       <c r="J394" t="b">
-        <f>H394=I394</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22785,7 +22791,7 @@
         <v>702</v>
       </c>
       <c r="J395" t="b">
-        <f>H395=I395</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22815,7 +22821,7 @@
         <v>703</v>
       </c>
       <c r="J396" t="b">
-        <f>H396=I396</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22845,7 +22851,7 @@
         <v>702</v>
       </c>
       <c r="J397" t="b">
-        <f>H397=I397</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22875,7 +22881,7 @@
         <v>702</v>
       </c>
       <c r="J398" t="b">
-        <f>H398=I398</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22905,7 +22911,7 @@
         <v>702</v>
       </c>
       <c r="J399" t="b">
-        <f>H399=I399</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22935,7 +22941,7 @@
         <v>702</v>
       </c>
       <c r="J400" t="b">
-        <f>H400=I400</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22965,7 +22971,7 @@
         <v>702</v>
       </c>
       <c r="J401" t="b">
-        <f>H401=I401</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22995,7 +23001,7 @@
         <v>702</v>
       </c>
       <c r="J402" t="b">
-        <f>H402=I402</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23025,7 +23031,7 @@
         <v>702</v>
       </c>
       <c r="J403" t="b">
-        <f>H403=I403</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23055,7 +23061,7 @@
         <v>702</v>
       </c>
       <c r="J404" t="b">
-        <f>H404=I404</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23085,7 +23091,7 @@
         <v>703</v>
       </c>
       <c r="J405" t="b">
-        <f>H405=I405</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23115,7 +23121,7 @@
         <v>703</v>
       </c>
       <c r="J406" t="b">
-        <f>H406=I406</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23145,7 +23151,7 @@
         <v>703</v>
       </c>
       <c r="J407" t="b">
-        <f>H407=I407</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23175,7 +23181,7 @@
         <v>702</v>
       </c>
       <c r="J408" t="b">
-        <f>H408=I408</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23205,7 +23211,7 @@
         <v>702</v>
       </c>
       <c r="J409" t="b">
-        <f>H409=I409</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23235,7 +23241,7 @@
         <v>703</v>
       </c>
       <c r="J410" t="b">
-        <f>H410=I410</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23265,7 +23271,7 @@
         <v>702</v>
       </c>
       <c r="J411" t="b">
-        <f>H411=I411</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23295,7 +23301,7 @@
         <v>703</v>
       </c>
       <c r="J412" t="b">
-        <f>H412=I412</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23325,7 +23331,7 @@
         <v>702</v>
       </c>
       <c r="J413" t="b">
-        <f>H413=I413</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23355,7 +23361,7 @@
         <v>702</v>
       </c>
       <c r="J414" t="b">
-        <f>H414=I414</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23385,7 +23391,7 @@
         <v>702</v>
       </c>
       <c r="J415" t="b">
-        <f>H415=I415</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23415,7 +23421,7 @@
         <v>702</v>
       </c>
       <c r="J416" t="b">
-        <f>H416=I416</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23445,7 +23451,7 @@
         <v>702</v>
       </c>
       <c r="J417" t="b">
-        <f>H417=I417</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23475,7 +23481,7 @@
         <v>702</v>
       </c>
       <c r="J418" t="b">
-        <f>H418=I418</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23505,7 +23511,7 @@
         <v>702</v>
       </c>
       <c r="J419" t="b">
-        <f>H419=I419</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23535,7 +23541,7 @@
         <v>702</v>
       </c>
       <c r="J420" t="b">
-        <f>H420=I420</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23565,7 +23571,7 @@
         <v>702</v>
       </c>
       <c r="J421" t="b">
-        <f>H421=I421</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23595,7 +23601,7 @@
         <v>702</v>
       </c>
       <c r="J422" t="b">
-        <f>H422=I422</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23625,7 +23631,7 @@
         <v>702</v>
       </c>
       <c r="J423" t="b">
-        <f>H423=I423</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23655,7 +23661,7 @@
         <v>702</v>
       </c>
       <c r="J424" t="b">
-        <f>H424=I424</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23685,7 +23691,7 @@
         <v>702</v>
       </c>
       <c r="J425" t="b">
-        <f>H425=I425</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23715,7 +23721,7 @@
         <v>702</v>
       </c>
       <c r="J426" t="b">
-        <f>H426=I426</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23745,7 +23751,7 @@
         <v>703</v>
       </c>
       <c r="J427" t="b">
-        <f>H427=I427</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23775,7 +23781,7 @@
         <v>703</v>
       </c>
       <c r="J428" t="b">
-        <f>H428=I428</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23805,7 +23811,7 @@
         <v>703</v>
       </c>
       <c r="J429" t="b">
-        <f>H429=I429</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23835,7 +23841,7 @@
         <v>703</v>
       </c>
       <c r="J430" t="b">
-        <f>H430=I430</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23865,7 +23871,7 @@
         <v>702</v>
       </c>
       <c r="J431" t="b">
-        <f>H431=I431</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23895,7 +23901,7 @@
         <v>702</v>
       </c>
       <c r="J432" t="b">
-        <f>H432=I432</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23925,7 +23931,7 @@
         <v>702</v>
       </c>
       <c r="J433" t="b">
-        <f>H433=I433</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23955,7 +23961,7 @@
         <v>702</v>
       </c>
       <c r="J434" t="b">
-        <f>H434=I434</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -23985,7 +23991,7 @@
         <v>702</v>
       </c>
       <c r="J435" t="b">
-        <f>H435=I435</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24015,7 +24021,7 @@
         <v>702</v>
       </c>
       <c r="J436" t="b">
-        <f>H436=I436</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24045,7 +24051,7 @@
         <v>702</v>
       </c>
       <c r="J437" t="b">
-        <f>H437=I437</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24075,7 +24081,7 @@
         <v>702</v>
       </c>
       <c r="J438" t="b">
-        <f>H438=I438</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24105,7 +24111,7 @@
         <v>702</v>
       </c>
       <c r="J439" t="b">
-        <f>H439=I439</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24135,7 +24141,7 @@
         <v>702</v>
       </c>
       <c r="J440" t="b">
-        <f>H440=I440</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24165,7 +24171,7 @@
         <v>702</v>
       </c>
       <c r="J441" t="b">
-        <f>H441=I441</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24195,7 +24201,7 @@
         <v>702</v>
       </c>
       <c r="J442" t="b">
-        <f>H442=I442</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24225,7 +24231,7 @@
         <v>703</v>
       </c>
       <c r="J443" t="b">
-        <f>H443=I443</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24255,7 +24261,7 @@
         <v>702</v>
       </c>
       <c r="J444" t="b">
-        <f>H444=I444</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24285,7 +24291,7 @@
         <v>702</v>
       </c>
       <c r="J445" t="b">
-        <f>H445=I445</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24315,7 +24321,7 @@
         <v>703</v>
       </c>
       <c r="J446" t="b">
-        <f>H446=I446</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24345,7 +24351,7 @@
         <v>702</v>
       </c>
       <c r="J447" t="b">
-        <f>H447=I447</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24375,7 +24381,7 @@
         <v>702</v>
       </c>
       <c r="J448" t="b">
-        <f>H448=I448</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24405,7 +24411,7 @@
         <v>702</v>
       </c>
       <c r="J449" t="b">
-        <f>H449=I449</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -24435,7 +24441,7 @@
         <v>703</v>
       </c>
       <c r="J450" t="b">
-        <f>H450=I450</f>
+        <f t="shared" ref="J450:J513" si="7">H450=I450</f>
         <v>1</v>
       </c>
     </row>
@@ -24465,7 +24471,7 @@
         <v>702</v>
       </c>
       <c r="J451" t="b">
-        <f>H451=I451</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24495,7 +24501,7 @@
         <v>703</v>
       </c>
       <c r="J452" t="b">
-        <f>H452=I452</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24525,7 +24531,7 @@
         <v>702</v>
       </c>
       <c r="J453" t="b">
-        <f>H453=I453</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24555,7 +24561,7 @@
         <v>703</v>
       </c>
       <c r="J454" t="b">
-        <f>H454=I454</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24585,7 +24591,7 @@
         <v>703</v>
       </c>
       <c r="J455" t="b">
-        <f>H455=I455</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24615,7 +24621,7 @@
         <v>703</v>
       </c>
       <c r="J456" t="b">
-        <f>H456=I456</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24645,7 +24651,7 @@
         <v>703</v>
       </c>
       <c r="J457" t="b">
-        <f>H457=I457</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24675,7 +24681,7 @@
         <v>702</v>
       </c>
       <c r="J458" t="b">
-        <f>H458=I458</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24705,7 +24711,7 @@
         <v>702</v>
       </c>
       <c r="J459" t="b">
-        <f>H459=I459</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24735,7 +24741,7 @@
         <v>703</v>
       </c>
       <c r="J460" t="b">
-        <f>H460=I460</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24765,7 +24771,7 @@
         <v>702</v>
       </c>
       <c r="J461" t="b">
-        <f>H461=I461</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24795,7 +24801,7 @@
         <v>702</v>
       </c>
       <c r="J462" t="b">
-        <f>H462=I462</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24825,7 +24831,7 @@
         <v>702</v>
       </c>
       <c r="J463" t="b">
-        <f>H463=I463</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24855,7 +24861,7 @@
         <v>702</v>
       </c>
       <c r="J464" t="b">
-        <f>H464=I464</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24885,7 +24891,7 @@
         <v>702</v>
       </c>
       <c r="J465" t="b">
-        <f>H465=I465</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24915,7 +24921,7 @@
         <v>703</v>
       </c>
       <c r="J466" t="b">
-        <f>H466=I466</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24945,7 +24951,7 @@
         <v>702</v>
       </c>
       <c r="J467" t="b">
-        <f>H467=I467</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -24975,7 +24981,7 @@
         <v>702</v>
       </c>
       <c r="J468" t="b">
-        <f>H468=I468</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25005,7 +25011,7 @@
         <v>702</v>
       </c>
       <c r="J469" t="b">
-        <f>H469=I469</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25035,7 +25041,7 @@
         <v>702</v>
       </c>
       <c r="J470" t="b">
-        <f>H470=I470</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25065,7 +25071,7 @@
         <v>703</v>
       </c>
       <c r="J471" t="b">
-        <f>H471=I471</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25095,7 +25101,7 @@
         <v>702</v>
       </c>
       <c r="J472" t="b">
-        <f>H472=I472</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25125,7 +25131,7 @@
         <v>702</v>
       </c>
       <c r="J473" t="b">
-        <f>H473=I473</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25155,7 +25161,7 @@
         <v>702</v>
       </c>
       <c r="J474" t="b">
-        <f>H474=I474</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25185,7 +25191,7 @@
         <v>704</v>
       </c>
       <c r="J475" t="b">
-        <f>H475=I475</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25215,7 +25221,7 @@
         <v>702</v>
       </c>
       <c r="J476" t="b">
-        <f>H476=I476</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25245,7 +25251,7 @@
         <v>702</v>
       </c>
       <c r="J477" t="b">
-        <f>H477=I477</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25275,7 +25281,7 @@
         <v>703</v>
       </c>
       <c r="J478" t="b">
-        <f>H478=I478</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25305,7 +25311,7 @@
         <v>703</v>
       </c>
       <c r="J479" t="b">
-        <f>H479=I479</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25335,7 +25341,7 @@
         <v>703</v>
       </c>
       <c r="J480" t="b">
-        <f>H480=I480</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25365,7 +25371,7 @@
         <v>703</v>
       </c>
       <c r="J481" t="b">
-        <f>H481=I481</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25395,7 +25401,7 @@
         <v>702</v>
       </c>
       <c r="J482" t="b">
-        <f>H482=I482</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25425,7 +25431,7 @@
         <v>703</v>
       </c>
       <c r="J483" t="b">
-        <f>H483=I483</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -25455,7 +25461,7 @@
         <v>704</v>
       </c>
       <c r="J484" t="b">
-        <f>H484=I484</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25485,7 +25491,7 @@
         <v>704</v>
       </c>
       <c r="J485" t="b">
-        <f>H485=I485</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25515,7 +25521,7 @@
         <v>702</v>
       </c>
       <c r="J486" t="b">
-        <f>H486=I486</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25545,7 +25551,7 @@
         <v>704</v>
       </c>
       <c r="J487" t="b">
-        <f>H487=I487</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25575,7 +25581,7 @@
         <v>704</v>
       </c>
       <c r="J488" t="b">
-        <f>H488=I488</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25605,7 +25611,7 @@
         <v>704</v>
       </c>
       <c r="J489" t="b">
-        <f>H489=I489</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25635,7 +25641,7 @@
         <v>704</v>
       </c>
       <c r="J490" t="b">
-        <f>H490=I490</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25665,7 +25671,7 @@
         <v>704</v>
       </c>
       <c r="J491" t="b">
-        <f>H491=I491</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25695,7 +25701,7 @@
         <v>704</v>
       </c>
       <c r="J492" t="b">
-        <f>H492=I492</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25725,7 +25731,7 @@
         <v>704</v>
       </c>
       <c r="J493" t="b">
-        <f>H493=I493</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25755,7 +25761,7 @@
         <v>704</v>
       </c>
       <c r="J494" t="b">
-        <f>H494=I494</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25785,7 +25791,7 @@
         <v>704</v>
       </c>
       <c r="J495" t="b">
-        <f>H495=I495</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25815,7 +25821,7 @@
         <v>704</v>
       </c>
       <c r="J496" t="b">
-        <f>H496=I496</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25845,7 +25851,7 @@
         <v>704</v>
       </c>
       <c r="J497" t="b">
-        <f>H497=I497</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25875,7 +25881,7 @@
         <v>704</v>
       </c>
       <c r="J498" t="b">
-        <f>H498=I498</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25905,7 +25911,7 @@
         <v>704</v>
       </c>
       <c r="J499" t="b">
-        <f>H499=I499</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25935,7 +25941,7 @@
         <v>704</v>
       </c>
       <c r="J500" t="b">
-        <f>H500=I500</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25965,7 +25971,7 @@
         <v>704</v>
       </c>
       <c r="J501" t="b">
-        <f>H501=I501</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -25995,7 +26001,7 @@
         <v>704</v>
       </c>
       <c r="J502" t="b">
-        <f>H502=I502</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26025,7 +26031,7 @@
         <v>704</v>
       </c>
       <c r="J503" t="b">
-        <f>H503=I503</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26055,7 +26061,7 @@
         <v>704</v>
       </c>
       <c r="J504" t="b">
-        <f>H504=I504</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26085,7 +26091,7 @@
         <v>704</v>
       </c>
       <c r="J505" t="b">
-        <f>H505=I505</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26115,7 +26121,7 @@
         <v>704</v>
       </c>
       <c r="J506" t="b">
-        <f>H506=I506</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26145,7 +26151,7 @@
         <v>704</v>
       </c>
       <c r="J507" t="b">
-        <f>H507=I507</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26175,7 +26181,7 @@
         <v>702</v>
       </c>
       <c r="J508" t="b">
-        <f>H508=I508</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26205,7 +26211,7 @@
         <v>704</v>
       </c>
       <c r="J509" t="b">
-        <f>H509=I509</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26235,7 +26241,7 @@
         <v>704</v>
       </c>
       <c r="J510" t="b">
-        <f>H510=I510</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26265,7 +26271,7 @@
         <v>704</v>
       </c>
       <c r="J511" t="b">
-        <f>H511=I511</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26295,7 +26301,7 @@
         <v>704</v>
       </c>
       <c r="J512" t="b">
-        <f>H512=I512</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26325,7 +26331,7 @@
         <v>704</v>
       </c>
       <c r="J513" t="b">
-        <f>H513=I513</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -26355,7 +26361,7 @@
         <v>704</v>
       </c>
       <c r="J514" t="b">
-        <f>H514=I514</f>
+        <f t="shared" ref="J514:J577" si="8">H514=I514</f>
         <v>0</v>
       </c>
     </row>
@@ -26385,7 +26391,7 @@
         <v>704</v>
       </c>
       <c r="J515" t="b">
-        <f>H515=I515</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26415,7 +26421,7 @@
         <v>704</v>
       </c>
       <c r="J516" t="b">
-        <f>H516=I516</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26445,7 +26451,7 @@
         <v>704</v>
       </c>
       <c r="J517" t="b">
-        <f>H517=I517</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26475,7 +26481,7 @@
         <v>704</v>
       </c>
       <c r="J518" t="b">
-        <f>H518=I518</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26505,7 +26511,7 @@
         <v>704</v>
       </c>
       <c r="J519" t="b">
-        <f>H519=I519</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26535,7 +26541,7 @@
         <v>704</v>
       </c>
       <c r="J520" t="b">
-        <f>H520=I520</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26565,7 +26571,7 @@
         <v>704</v>
       </c>
       <c r="J521" t="b">
-        <f>H521=I521</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26595,7 +26601,7 @@
         <v>704</v>
       </c>
       <c r="J522" t="b">
-        <f>H522=I522</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26625,7 +26631,7 @@
         <v>704</v>
       </c>
       <c r="J523" t="b">
-        <f>H523=I523</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26655,7 +26661,7 @@
         <v>704</v>
       </c>
       <c r="J524" t="b">
-        <f>H524=I524</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26685,7 +26691,7 @@
         <v>704</v>
       </c>
       <c r="J525" t="b">
-        <f>H525=I525</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26715,7 +26721,7 @@
         <v>704</v>
       </c>
       <c r="J526" t="b">
-        <f>H526=I526</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26745,7 +26751,7 @@
         <v>702</v>
       </c>
       <c r="J527" t="b">
-        <f>H527=I527</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26775,7 +26781,7 @@
         <v>704</v>
       </c>
       <c r="J528" t="b">
-        <f>H528=I528</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26805,7 +26811,7 @@
         <v>704</v>
       </c>
       <c r="J529" t="b">
-        <f>H529=I529</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26835,7 +26841,7 @@
         <v>704</v>
       </c>
       <c r="J530" t="b">
-        <f>H530=I530</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26865,7 +26871,7 @@
         <v>704</v>
       </c>
       <c r="J531" t="b">
-        <f>H531=I531</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26895,7 +26901,7 @@
         <v>704</v>
       </c>
       <c r="J532" t="b">
-        <f>H532=I532</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26925,7 +26931,7 @@
         <v>704</v>
       </c>
       <c r="J533" t="b">
-        <f>H533=I533</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26955,7 +26961,7 @@
         <v>704</v>
       </c>
       <c r="J534" t="b">
-        <f>H534=I534</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -26985,7 +26991,7 @@
         <v>704</v>
       </c>
       <c r="J535" t="b">
-        <f>H535=I535</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27015,7 +27021,7 @@
         <v>704</v>
       </c>
       <c r="J536" t="b">
-        <f>H536=I536</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27045,7 +27051,7 @@
         <v>703</v>
       </c>
       <c r="J537" t="b">
-        <f>H537=I537</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27075,7 +27081,7 @@
         <v>704</v>
       </c>
       <c r="J538" t="b">
-        <f>H538=I538</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27105,7 +27111,7 @@
         <v>704</v>
       </c>
       <c r="J539" t="b">
-        <f>H539=I539</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27135,7 +27141,7 @@
         <v>704</v>
       </c>
       <c r="J540" t="b">
-        <f>H540=I540</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27168,7 +27174,7 @@
         <v>703</v>
       </c>
       <c r="J541" t="b">
-        <f>H541=I541</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27198,7 +27204,7 @@
         <v>704</v>
       </c>
       <c r="J542" t="b">
-        <f>H542=I542</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27228,7 +27234,7 @@
         <v>704</v>
       </c>
       <c r="J543" t="b">
-        <f>H543=I543</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27258,7 +27264,7 @@
         <v>704</v>
       </c>
       <c r="J544" t="b">
-        <f>H544=I544</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27288,7 +27294,7 @@
         <v>704</v>
       </c>
       <c r="J545" t="b">
-        <f>H545=I545</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27318,7 +27324,7 @@
         <v>704</v>
       </c>
       <c r="J546" t="b">
-        <f>H546=I546</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27348,7 +27354,7 @@
         <v>704</v>
       </c>
       <c r="J547" t="b">
-        <f>H547=I547</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27378,7 +27384,7 @@
         <v>704</v>
       </c>
       <c r="J548" t="b">
-        <f>H548=I548</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27408,7 +27414,7 @@
         <v>704</v>
       </c>
       <c r="J549" t="b">
-        <f>H549=I549</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27438,7 +27444,7 @@
         <v>704</v>
       </c>
       <c r="J550" t="b">
-        <f>H550=I550</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27468,7 +27474,7 @@
         <v>704</v>
       </c>
       <c r="J551" t="b">
-        <f>H551=I551</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27498,7 +27504,7 @@
         <v>704</v>
       </c>
       <c r="J552" t="b">
-        <f>H552=I552</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27528,7 +27534,7 @@
         <v>704</v>
       </c>
       <c r="J553" t="b">
-        <f>H553=I553</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27558,7 +27564,7 @@
         <v>704</v>
       </c>
       <c r="J554" t="b">
-        <f>H554=I554</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27588,7 +27594,7 @@
         <v>704</v>
       </c>
       <c r="J555" t="b">
-        <f>H555=I555</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27618,7 +27624,7 @@
         <v>704</v>
       </c>
       <c r="J556" t="b">
-        <f>H556=I556</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27648,7 +27654,7 @@
         <v>704</v>
       </c>
       <c r="J557" t="b">
-        <f>H557=I557</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27678,7 +27684,7 @@
         <v>704</v>
       </c>
       <c r="J558" t="b">
-        <f>H558=I558</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27708,7 +27714,7 @@
         <v>704</v>
       </c>
       <c r="J559" t="b">
-        <f>H559=I559</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27738,7 +27744,7 @@
         <v>703</v>
       </c>
       <c r="J560" t="b">
-        <f>H560=I560</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27768,7 +27774,7 @@
         <v>704</v>
       </c>
       <c r="J561" t="b">
-        <f>H561=I561</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27798,7 +27804,7 @@
         <v>704</v>
       </c>
       <c r="J562" t="b">
-        <f>H562=I562</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27828,7 +27834,7 @@
         <v>704</v>
       </c>
       <c r="J563" t="b">
-        <f>H563=I563</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27858,7 +27864,7 @@
         <v>704</v>
       </c>
       <c r="J564" t="b">
-        <f>H564=I564</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27888,7 +27894,7 @@
         <v>704</v>
       </c>
       <c r="J565" t="b">
-        <f>H565=I565</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27918,7 +27924,7 @@
         <v>704</v>
       </c>
       <c r="J566" t="b">
-        <f>H566=I566</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27948,7 +27954,7 @@
         <v>704</v>
       </c>
       <c r="J567" t="b">
-        <f>H567=I567</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -27978,7 +27984,7 @@
         <v>704</v>
       </c>
       <c r="J568" t="b">
-        <f>H568=I568</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28008,7 +28014,7 @@
         <v>704</v>
       </c>
       <c r="J569" t="b">
-        <f>H569=I569</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28038,7 +28044,7 @@
         <v>704</v>
       </c>
       <c r="J570" t="b">
-        <f>H570=I570</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28068,7 +28074,7 @@
         <v>704</v>
       </c>
       <c r="J571" t="b">
-        <f>H571=I571</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28098,7 +28104,7 @@
         <v>704</v>
       </c>
       <c r="J572" t="b">
-        <f>H572=I572</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28128,7 +28134,7 @@
         <v>704</v>
       </c>
       <c r="J573" t="b">
-        <f>H573=I573</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28158,7 +28164,7 @@
         <v>704</v>
       </c>
       <c r="J574" t="b">
-        <f>H574=I574</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28188,7 +28194,7 @@
         <v>704</v>
       </c>
       <c r="J575" t="b">
-        <f>H575=I575</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28218,7 +28224,7 @@
         <v>703</v>
       </c>
       <c r="J576" t="b">
-        <f>H576=I576</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28248,7 +28254,7 @@
         <v>704</v>
       </c>
       <c r="J577" t="b">
-        <f>H577=I577</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -28278,7 +28284,7 @@
         <v>704</v>
       </c>
       <c r="J578" t="b">
-        <f>H578=I578</f>
+        <f t="shared" ref="J578:J641" si="9">H578=I578</f>
         <v>0</v>
       </c>
     </row>
@@ -28308,7 +28314,7 @@
         <v>704</v>
       </c>
       <c r="J579" t="b">
-        <f>H579=I579</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28338,7 +28344,7 @@
         <v>704</v>
       </c>
       <c r="J580" t="b">
-        <f>H580=I580</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28368,7 +28374,7 @@
         <v>704</v>
       </c>
       <c r="J581" t="b">
-        <f>H581=I581</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28398,7 +28404,7 @@
         <v>704</v>
       </c>
       <c r="J582" t="b">
-        <f>H582=I582</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28428,7 +28434,7 @@
         <v>704</v>
       </c>
       <c r="J583" t="b">
-        <f>H583=I583</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28458,7 +28464,7 @@
         <v>704</v>
       </c>
       <c r="J584" t="b">
-        <f>H584=I584</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28488,7 +28494,7 @@
         <v>704</v>
       </c>
       <c r="J585" t="b">
-        <f>H585=I585</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28518,7 +28524,7 @@
         <v>704</v>
       </c>
       <c r="J586" t="b">
-        <f>H586=I586</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28548,7 +28554,7 @@
         <v>704</v>
       </c>
       <c r="J587" t="b">
-        <f>H587=I587</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28578,7 +28584,7 @@
         <v>703</v>
       </c>
       <c r="J588" t="b">
-        <f>H588=I588</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28608,7 +28614,7 @@
         <v>704</v>
       </c>
       <c r="J589" t="b">
-        <f>H589=I589</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28638,7 +28644,7 @@
         <v>704</v>
       </c>
       <c r="J590" t="b">
-        <f>H590=I590</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28668,7 +28674,7 @@
         <v>704</v>
       </c>
       <c r="J591" t="b">
-        <f>H591=I591</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28698,7 +28704,7 @@
         <v>704</v>
       </c>
       <c r="J592" t="b">
-        <f>H592=I592</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28728,7 +28734,7 @@
         <v>703</v>
       </c>
       <c r="J593" t="b">
-        <f>H593=I593</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28758,7 +28764,7 @@
         <v>703</v>
       </c>
       <c r="J594" t="b">
-        <f>H594=I594</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28788,7 +28794,7 @@
         <v>703</v>
       </c>
       <c r="J595" t="b">
-        <f>H595=I595</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28818,7 +28824,7 @@
         <v>702</v>
       </c>
       <c r="J596" t="b">
-        <f>H596=I596</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28848,7 +28854,7 @@
         <v>704</v>
       </c>
       <c r="J597" t="b">
-        <f>H597=I597</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28878,7 +28884,7 @@
         <v>704</v>
       </c>
       <c r="J598" t="b">
-        <f>H598=I598</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28908,7 +28914,7 @@
         <v>704</v>
       </c>
       <c r="J599" t="b">
-        <f>H599=I599</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28938,7 +28944,7 @@
         <v>704</v>
       </c>
       <c r="J600" t="b">
-        <f>H600=I600</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28968,7 +28974,7 @@
         <v>704</v>
       </c>
       <c r="J601" t="b">
-        <f>H601=I601</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -28998,7 +29004,7 @@
         <v>704</v>
       </c>
       <c r="J602" t="b">
-        <f>H602=I602</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29028,7 +29034,7 @@
         <v>704</v>
       </c>
       <c r="J603" t="b">
-        <f>H603=I603</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29058,7 +29064,7 @@
         <v>703</v>
       </c>
       <c r="J604" t="b">
-        <f>H604=I604</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29088,7 +29094,7 @@
         <v>704</v>
       </c>
       <c r="J605" t="b">
-        <f>H605=I605</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29118,7 +29124,7 @@
         <v>704</v>
       </c>
       <c r="J606" t="b">
-        <f>H606=I606</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29148,7 +29154,7 @@
         <v>704</v>
       </c>
       <c r="J607" t="b">
-        <f>H607=I607</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29178,7 +29184,7 @@
         <v>704</v>
       </c>
       <c r="J608" t="b">
-        <f>H608=I608</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29208,7 +29214,7 @@
         <v>704</v>
       </c>
       <c r="J609" t="b">
-        <f>H609=I609</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29238,7 +29244,7 @@
         <v>704</v>
       </c>
       <c r="J610" t="b">
-        <f>H610=I610</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29268,7 +29274,7 @@
         <v>703</v>
       </c>
       <c r="J611" t="b">
-        <f>H611=I611</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29298,7 +29304,7 @@
         <v>703</v>
       </c>
       <c r="J612" t="b">
-        <f>H612=I612</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29328,7 +29334,7 @@
         <v>704</v>
       </c>
       <c r="J613" t="b">
-        <f>H613=I613</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29358,7 +29364,7 @@
         <v>704</v>
       </c>
       <c r="J614" t="b">
-        <f>H614=I614</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29388,7 +29394,7 @@
         <v>704</v>
       </c>
       <c r="J615" t="b">
-        <f>H615=I615</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29418,7 +29424,7 @@
         <v>703</v>
       </c>
       <c r="J616" t="b">
-        <f>H616=I616</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29448,7 +29454,7 @@
         <v>704</v>
       </c>
       <c r="J617" t="b">
-        <f>H617=I617</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29478,7 +29484,7 @@
         <v>704</v>
       </c>
       <c r="J618" t="b">
-        <f>H618=I618</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29508,7 +29514,7 @@
         <v>704</v>
       </c>
       <c r="J619" t="b">
-        <f>H619=I619</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29538,7 +29544,7 @@
         <v>704</v>
       </c>
       <c r="J620" t="b">
-        <f>H620=I620</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29568,7 +29574,7 @@
         <v>704</v>
       </c>
       <c r="J621" t="b">
-        <f>H621=I621</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29598,7 +29604,7 @@
         <v>703</v>
       </c>
       <c r="J622" t="b">
-        <f>H622=I622</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29628,7 +29634,7 @@
         <v>704</v>
       </c>
       <c r="J623" t="b">
-        <f>H623=I623</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29658,7 +29664,7 @@
         <v>702</v>
       </c>
       <c r="J624" t="b">
-        <f>H624=I624</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29688,7 +29694,7 @@
         <v>704</v>
       </c>
       <c r="J625" t="b">
-        <f>H625=I625</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29718,7 +29724,7 @@
         <v>704</v>
       </c>
       <c r="J626" t="b">
-        <f>H626=I626</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29748,7 +29754,7 @@
         <v>703</v>
       </c>
       <c r="J627" t="b">
-        <f>H627=I627</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29778,7 +29784,7 @@
         <v>704</v>
       </c>
       <c r="J628" t="b">
-        <f>H628=I628</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29808,7 +29814,7 @@
         <v>704</v>
       </c>
       <c r="J629" t="b">
-        <f>H629=I629</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29838,7 +29844,7 @@
         <v>704</v>
       </c>
       <c r="J630" t="b">
-        <f>H630=I630</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29868,7 +29874,7 @@
         <v>704</v>
       </c>
       <c r="J631" t="b">
-        <f>H631=I631</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29898,7 +29904,7 @@
         <v>704</v>
       </c>
       <c r="J632" t="b">
-        <f>H632=I632</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29928,7 +29934,7 @@
         <v>704</v>
       </c>
       <c r="J633" t="b">
-        <f>H633=I633</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29958,7 +29964,7 @@
         <v>704</v>
       </c>
       <c r="J634" t="b">
-        <f>H634=I634</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -29988,7 +29994,7 @@
         <v>704</v>
       </c>
       <c r="J635" t="b">
-        <f>H635=I635</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30018,7 +30024,7 @@
         <v>703</v>
       </c>
       <c r="J636" t="b">
-        <f>H636=I636</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30048,7 +30054,7 @@
         <v>704</v>
       </c>
       <c r="J637" t="b">
-        <f>H637=I637</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30078,7 +30084,7 @@
         <v>704</v>
       </c>
       <c r="J638" t="b">
-        <f>H638=I638</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30108,7 +30114,7 @@
         <v>704</v>
       </c>
       <c r="J639" t="b">
-        <f>H639=I639</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30138,7 +30144,7 @@
         <v>704</v>
       </c>
       <c r="J640" t="b">
-        <f>H640=I640</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30168,7 +30174,7 @@
         <v>704</v>
       </c>
       <c r="J641" t="b">
-        <f>H641=I641</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30198,7 +30204,7 @@
         <v>704</v>
       </c>
       <c r="J642" t="b">
-        <f>H642=I642</f>
+        <f t="shared" ref="J642:J681" si="10">H642=I642</f>
         <v>0</v>
       </c>
     </row>
@@ -30228,7 +30234,7 @@
         <v>703</v>
       </c>
       <c r="J643" t="b">
-        <f>H643=I643</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30258,7 +30264,7 @@
         <v>704</v>
       </c>
       <c r="J644" t="b">
-        <f>H644=I644</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30288,7 +30294,7 @@
         <v>704</v>
       </c>
       <c r="J645" t="b">
-        <f>H645=I645</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30318,7 +30324,7 @@
         <v>704</v>
       </c>
       <c r="J646" t="b">
-        <f>H646=I646</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30348,7 +30354,7 @@
         <v>704</v>
       </c>
       <c r="J647" t="b">
-        <f>H647=I647</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30378,7 +30384,7 @@
         <v>703</v>
       </c>
       <c r="J648" t="b">
-        <f>H648=I648</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30408,7 +30414,7 @@
         <v>704</v>
       </c>
       <c r="J649" t="b">
-        <f>H649=I649</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30438,7 +30444,7 @@
         <v>704</v>
       </c>
       <c r="J650" t="b">
-        <f>H650=I650</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30468,7 +30474,7 @@
         <v>704</v>
       </c>
       <c r="J651" t="b">
-        <f>H651=I651</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30498,7 +30504,7 @@
         <v>704</v>
       </c>
       <c r="J652" t="b">
-        <f>H652=I652</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30528,7 +30534,7 @@
         <v>704</v>
       </c>
       <c r="J653" t="b">
-        <f>H653=I653</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30558,7 +30564,7 @@
         <v>704</v>
       </c>
       <c r="J654" t="b">
-        <f>H654=I654</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30588,7 +30594,7 @@
         <v>704</v>
       </c>
       <c r="J655" t="b">
-        <f>H655=I655</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30618,7 +30624,7 @@
         <v>703</v>
       </c>
       <c r="J656" t="b">
-        <f>H656=I656</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30648,7 +30654,7 @@
         <v>702</v>
       </c>
       <c r="J657" t="b">
-        <f>H657=I657</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30678,7 +30684,7 @@
         <v>704</v>
       </c>
       <c r="J658" t="b">
-        <f>H658=I658</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30708,7 +30714,7 @@
         <v>703</v>
       </c>
       <c r="J659" t="b">
-        <f>H659=I659</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30738,7 +30744,7 @@
         <v>704</v>
       </c>
       <c r="J660" t="b">
-        <f>H660=I660</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30768,7 +30774,7 @@
         <v>703</v>
       </c>
       <c r="J661" t="b">
-        <f>H661=I661</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30798,7 +30804,7 @@
         <v>704</v>
       </c>
       <c r="J662" t="b">
-        <f>H662=I662</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30828,7 +30834,7 @@
         <v>704</v>
       </c>
       <c r="J663" t="b">
-        <f>H663=I663</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30858,7 +30864,7 @@
         <v>702</v>
       </c>
       <c r="J664" t="b">
-        <f>H664=I664</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30888,7 +30894,7 @@
         <v>704</v>
       </c>
       <c r="J665" t="b">
-        <f>H665=I665</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30918,7 +30924,7 @@
         <v>704</v>
       </c>
       <c r="J666" t="b">
-        <f>H666=I666</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30948,7 +30954,7 @@
         <v>704</v>
       </c>
       <c r="J667" t="b">
-        <f>H667=I667</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -30978,7 +30984,7 @@
         <v>704</v>
       </c>
       <c r="J668" t="b">
-        <f>H668=I668</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31008,7 +31014,7 @@
         <v>703</v>
       </c>
       <c r="J669" t="b">
-        <f>H669=I669</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31038,7 +31044,7 @@
         <v>704</v>
       </c>
       <c r="J670" t="b">
-        <f>H670=I670</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31068,7 +31074,7 @@
         <v>703</v>
       </c>
       <c r="J671" t="b">
-        <f>H671=I671</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31098,7 +31104,7 @@
         <v>704</v>
       </c>
       <c r="J672" t="b">
-        <f>H672=I672</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31128,7 +31134,7 @@
         <v>704</v>
       </c>
       <c r="J673" t="b">
-        <f>H673=I673</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31158,7 +31164,7 @@
         <v>704</v>
       </c>
       <c r="J674" t="b">
-        <f>H674=I674</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31188,7 +31194,7 @@
         <v>704</v>
       </c>
       <c r="J675" t="b">
-        <f>H675=I675</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31218,7 +31224,7 @@
         <v>704</v>
       </c>
       <c r="J676" t="b">
-        <f>H676=I676</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31248,7 +31254,7 @@
         <v>704</v>
       </c>
       <c r="J677" t="b">
-        <f>H677=I677</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31278,7 +31284,7 @@
         <v>704</v>
       </c>
       <c r="J678" t="b">
-        <f>H678=I678</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31308,7 +31314,7 @@
         <v>703</v>
       </c>
       <c r="J679" t="b">
-        <f>H679=I679</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31338,7 +31344,7 @@
         <v>704</v>
       </c>
       <c r="J680" t="b">
-        <f>H680=I680</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31368,7 +31374,7 @@
         <v>704</v>
       </c>
       <c r="J681" t="b">
-        <f>H681=I681</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -31385,9 +31391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8195E9C-5F93-4E15-A8A4-D43379DE32E9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
